--- a/aaa.xlsx
+++ b/aaa.xlsx
@@ -25778,7 +25778,7 @@
   <dimension ref="A1:E505"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29313,7 +29313,7 @@
   <dimension ref="A1:AD53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="W12" activeCellId="0" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29816,7 +29816,7 @@
       <c r="F9" s="160" t="n">
         <v>6</v>
       </c>
-      <c r="G9" s="160"/>
+      <c r="G9" s="0"/>
       <c r="H9" s="160"/>
       <c r="I9" s="160"/>
       <c r="J9" s="160"/>
@@ -32239,7 +32239,7 @@
   <dimension ref="A1:AB46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W16" activeCellId="0" sqref="W16"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
